--- a/checklist/checklist.xlsx
+++ b/checklist/checklist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="81">
   <si>
     <t>Проверка</t>
   </si>
@@ -648,7 +648,7 @@
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60:B71"/>
+      <selection activeCell="B69" sqref="B69:B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1654,27 +1654,35 @@
       <c r="C71" s="5"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
+      <c r="B72" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C72" s="5"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
+      <c r="B73" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C73" s="5"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
+      <c r="B74" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C74" s="5"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
+      <c r="B75" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C75" s="5"/>
       <c r="D75" s="2"/>
     </row>
